--- a/XLDATA/DATA.xlsx
+++ b/XLDATA/DATA.xlsx
@@ -11,11 +11,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>username</t>
   </si>
@@ -96,13 +97,40 @@
   </si>
   <si>
     <t>details</t>
+  </si>
+  <si>
+    <t>mobnum</t>
+  </si>
+  <si>
+    <t>mob_number</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>address1</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>//font[@color='#008000']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +144,12 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -163,7 +197,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -179,6 +213,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -615,25 +655,45 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+    <row r="16" spans="1:3" ht="21" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="21" customHeight="1">
+      <c r="A17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="19.5" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="21" customHeight="1">
+      <c r="A19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="19.5" customHeight="1">
+      <c r="A20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1"/>
@@ -659,6 +719,7 @@
     <hyperlink ref="C2" r:id="rId4" display="BSIT@N2021"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/XLDATA/DATA.xlsx
+++ b/XLDATA/DATA.xlsx
@@ -197,9 +197,8 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -518,180 +517,180 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
-    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="24" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="24.75" customHeight="1">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" customHeight="1">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="21" customHeight="1">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="21" customHeight="1">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="19.5" customHeight="1">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="21" customHeight="1">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="19.5" customHeight="1">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>35</v>
       </c>
     </row>

--- a/XLDATA/DATA.xlsx
+++ b/XLDATA/DATA.xlsx
@@ -16,134 +16,139 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>username</t>
   </si>
   <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>//font[@color='#FF0000']</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>//input[@id='empid']//following-sibling::input[2]</t>
+  </si>
+  <si>
+    <t>selEmployeeId</t>
+  </si>
+  <si>
+    <t>empsel</t>
+  </si>
+  <si>
+    <t>//input[@id='prjid']//following-sibling::input[2]</t>
+  </si>
+  <si>
+    <t>projbutton</t>
+  </si>
+  <si>
+    <t>selProjectId</t>
+  </si>
+  <si>
+    <t>projsel</t>
+  </si>
+  <si>
+    <t>anchor1</t>
+  </si>
+  <si>
+    <t>calendar</t>
+  </si>
+  <si>
+    <t>calmonthyear</t>
+  </si>
+  <si>
+    <t>//span[@class='cpMonthNavigation']</t>
+  </si>
+  <si>
+    <t>//table[@width='100%']//tbody//child::tr//child::td[3]//child::a</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>calendar1</t>
+  </si>
+  <si>
+    <t>/html/body/table/tbody/tr[2]/td/table/tbody/tr[2]/td/table/tbody/tr/td/table/tbody/tr[2]/td[4]/a</t>
+  </si>
+  <si>
+    <t>viewreport</t>
+  </si>
+  <si>
+    <t>//input[@value='View Report']</t>
+  </si>
+  <si>
+    <t>cullen</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>mobnum</t>
+  </si>
+  <si>
+    <t>mob_number</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>address1</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>//font[@color='#008000']</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>linktext</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>password</t>
   </si>
   <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>error</t>
-  </si>
-  <si>
-    <t>//font[@color='#FF0000']</t>
-  </si>
-  <si>
-    <t>report</t>
-  </si>
-  <si>
-    <t>Report</t>
-  </si>
-  <si>
-    <t>empbutton</t>
-  </si>
-  <si>
-    <t>//input[@id='empid']//following-sibling::input[2]</t>
-  </si>
-  <si>
-    <t>selEmployeeId</t>
-  </si>
-  <si>
-    <t>empsel</t>
-  </si>
-  <si>
-    <t>//input[@id='prjid']//following-sibling::input[2]</t>
-  </si>
-  <si>
-    <t>projbutton</t>
-  </si>
-  <si>
-    <t>selProjectId</t>
-  </si>
-  <si>
-    <t>projsel</t>
-  </si>
-  <si>
-    <t>anchor1</t>
-  </si>
-  <si>
-    <t>calendar</t>
-  </si>
-  <si>
-    <t>calmonthyear</t>
-  </si>
-  <si>
-    <t>//span[@class='cpMonthNavigation']</t>
-  </si>
-  <si>
-    <t>//table[@width='100%']//tbody//child::tr//child::td[3]//child::a</t>
-  </si>
-  <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>calendar1</t>
-  </si>
-  <si>
-    <t>/html/body/table/tbody/tr[2]/td/table/tbody/tr[2]/td/table/tbody/tr/td/table/tbody/tr[2]/td[4]/a</t>
-  </si>
-  <si>
-    <t>viewreport</t>
-  </si>
-  <si>
-    <t>//input[@value='View Report']</t>
-  </si>
-  <si>
-    <t>cullen</t>
-  </si>
-  <si>
-    <t>details</t>
-  </si>
-  <si>
-    <t>mobnum</t>
-  </si>
-  <si>
-    <t>mob_number</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>address1</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>update</t>
-  </si>
-  <si>
-    <t>submit</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>//font[@color='#008000']</t>
+    <t>empbut</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -190,21 +195,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -216,12 +213,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -516,209 +512,259 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="73" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="1" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="73" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="24" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" ht="24" customHeight="1">
-      <c r="A3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="22.5" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="23.25" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="A6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A8" s="3" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:3" ht="21" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21" customHeight="1">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:3" ht="21.75" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A11" s="3" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="24.75" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="24.75" customHeight="1">
-      <c r="A12" s="3" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="30" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" customHeight="1">
-      <c r="A13" s="3" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="21.75" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:3" ht="21.75" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A15" s="3" t="s">
+    </row>
+    <row r="16" spans="1:3" ht="21" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="21" customHeight="1">
-      <c r="A16" s="3" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="21" customHeight="1">
+      <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="21" customHeight="1">
-      <c r="A17" s="3" t="s">
+    <row r="18" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="21" customHeight="1">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="19.5" customHeight="1">
-      <c r="A18" s="3" t="s">
+      <c r="B19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="21" customHeight="1">
-      <c r="A19" s="3" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="19.5" customHeight="1">
-      <c r="A20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="naveen.techlead@bsitsoftware.com"/>
-    <hyperlink ref="B2" r:id="rId2" display="BSIT@N2021"/>
-    <hyperlink ref="C1" r:id="rId3" display="naveen.techlead@bsitsoftware.com"/>
-    <hyperlink ref="C2" r:id="rId4" display="BSIT@N2021"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
